--- a/030_VA03_Display_Order/Default.xlsx
+++ b/030_VA03_Display_Order/Default.xlsx
@@ -230,19 +230,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -549,13 +549,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="10.90234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75390625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.91796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.14453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75390625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.91796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.14453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.87890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
@@ -582,19 +582,19 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -613,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
